--- a/combined_data.xlsx
+++ b/combined_data.xlsx
@@ -1152,13 +1152,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="n">
-        <v>141338</v>
+        <v>141339</v>
       </c>
       <c r="C32" t="n">
         <v>99.31</v>
       </c>
       <c r="D32" t="n">
-        <v>23300</v>
+        <v>23301</v>
       </c>
       <c r="E32" t="n">
         <v>43207</v>
@@ -2229,17 +2229,17 @@
         <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C15" t="n">
-        <v>12.9</v>
+        <v>12.91</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="n">
         <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
@@ -2266,7 +2266,7 @@
         <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>5.69</v>
+        <v>5.63</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="n">
@@ -2279,19 +2279,19 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="n">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="C18" t="n">
-        <v>81.28</v>
+        <v>81.32</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F18" t="n">
-        <v>534</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20">
@@ -2324,17 +2324,17 @@
         <v>15</v>
       </c>
       <c r="B22" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C22" t="n">
-        <v>16.97</v>
+        <v>16.94</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="n">
         <v>16</v>
       </c>
       <c r="F22" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23">
@@ -2342,17 +2342,17 @@
         <v>16</v>
       </c>
       <c r="B23" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C23" t="n">
-        <v>19.07</v>
+        <v>19.03</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="n">
         <v>8</v>
       </c>
       <c r="F23" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24">
@@ -2360,17 +2360,17 @@
         <v>17</v>
       </c>
       <c r="B24" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C24" t="n">
-        <v>17.67</v>
+        <v>17.92</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="n">
         <v>9</v>
       </c>
       <c r="F24" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
@@ -2381,7 +2381,7 @@
         <v>146</v>
       </c>
       <c r="C25" t="n">
-        <v>20.48</v>
+        <v>20.28</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="n">
@@ -2396,14 +2396,14 @@
         <v>19</v>
       </c>
       <c r="B26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26" t="n">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -2412,10 +2412,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C27" t="n">
-        <v>23.98</v>
+        <v>23.89</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -2424,7 +2424,7 @@
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29">
